--- a/files/demotest.xlsx
+++ b/files/demotest.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajesh.su\Desktop\ALF Demo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajesh.su\Downloads\demo-ci-cd-main\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F97B1E6B-1910-426C-8776-5CB9D9A00B38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C918D5B1-D9BF-4CBB-8A75-133C01050BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,44 +36,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>URL</t>
   </si>
   <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
     <t>Test Case Name</t>
   </si>
   <si>
-    <t>SubstanceName</t>
-  </si>
-  <si>
-    <t>SubstanceShortName</t>
-  </si>
-  <si>
-    <t>RegimeName</t>
-  </si>
-  <si>
     <t>updateRisk</t>
   </si>
   <si>
-    <t>EntitiesName</t>
-  </si>
-  <si>
-    <t>EntitiesTestHistory</t>
-  </si>
-  <si>
-    <t>SampleName</t>
-  </si>
-  <si>
-    <t>ResultName</t>
-  </si>
-  <si>
     <t>CollectorsTest.java</t>
   </si>
   <si>
@@ -113,9 +86,6 @@
     <t>Bug</t>
   </si>
   <si>
-    <t>SearchAuditLog</t>
-  </si>
-  <si>
     <t>Failed</t>
   </si>
   <si>
@@ -125,13 +95,28 @@
     <t>DTV4_189 - spiliting</t>
   </si>
   <si>
-    <t>google</t>
-  </si>
-  <si>
-    <t>https://www.google.co.in/</t>
-  </si>
-  <si>
-    <t>googleURL</t>
+    <t>FA</t>
+  </si>
+  <si>
+    <t>http://40.80.80.174:8080/sports-0.0.1/</t>
+  </si>
+  <si>
+    <t>AppLaunch</t>
+  </si>
+  <si>
+    <t>AFL</t>
+  </si>
+  <si>
+    <t>MLB</t>
+  </si>
+  <si>
+    <t>NRL</t>
+  </si>
+  <si>
+    <t>NHL</t>
+  </si>
+  <si>
+    <t>HKJC</t>
   </si>
 </sst>
 </file>
@@ -491,88 +476,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="38.36328125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.7265625" style="3"/>
+    <col min="3" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>30</v>
+      <c r="B7" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{BAC2C70D-9D21-49F4-B6E4-79CEAC21B48A}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{E997BD19-23AA-480F-988B-7CEC6AD1FCBB}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -599,19 +583,19 @@
     </row>
     <row r="6" spans="5:17" x14ac:dyDescent="0.35">
       <c r="E6" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K6" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="P6">
         <v>70</v>
@@ -623,143 +607,143 @@
     </row>
     <row r="7" spans="5:17" x14ac:dyDescent="0.35">
       <c r="E7" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="J7" s="4"/>
       <c r="K7" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="L7" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="5:17" x14ac:dyDescent="0.35">
       <c r="E8" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="H8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="5:17" x14ac:dyDescent="0.35">
       <c r="E9" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K9" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="5:17" x14ac:dyDescent="0.35">
       <c r="E10" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="H10" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J10" s="4"/>
       <c r="K10" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="5:17" x14ac:dyDescent="0.35">
       <c r="E11" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="5:17" x14ac:dyDescent="0.35">
       <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" t="s">
         <v>18</v>
-      </c>
-      <c r="F12" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K12" t="s">
-        <v>22</v>
-      </c>
-      <c r="L12" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="13" spans="5:17" x14ac:dyDescent="0.35">
       <c r="E13" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="H13" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K13" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="5:17" x14ac:dyDescent="0.35">
       <c r="E14" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K14" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="5:17" x14ac:dyDescent="0.35">
       <c r="E15" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="G15" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K15" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="5:17" x14ac:dyDescent="0.35">
       <c r="E16" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="K16" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -768,6 +752,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AF481DA395363459B41C16DFF4BA6A7" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4c6d370485cc6195fa162f69fdd108fb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="55c14da5-d201-4054-b292-8f9dff391362" xmlns:ns3="618a4239-2d27-49a6-ab18-57bf3535ca02" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f3428ca92c8baf5dd146268d61ffd8ff" ns2:_="" ns3:_="">
     <xsd:import namespace="55c14da5-d201-4054-b292-8f9dff391362"/>
@@ -984,22 +983,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14F10E31-AE8D-4B8B-A0D9-DA7D20CFC58C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{302AA12E-C157-4EE2-9162-B8284453AB63}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDA82890-82D1-40D0-8545-84658EE1F412}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1016,21 +1017,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{302AA12E-C157-4EE2-9162-B8284453AB63}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14F10E31-AE8D-4B8B-A0D9-DA7D20CFC58C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/files/demotest.xlsx
+++ b/files/demotest.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rajesh.su\Downloads\demo-ci-cd-main\files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kodumuni.s\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C918D5B1-D9BF-4CBB-8A75-133C01050BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9ED0F0E-50A0-4891-B815-9537D3A6D23C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -98,9 +98,6 @@
     <t>FA</t>
   </si>
   <si>
-    <t>http://40.80.80.174:8080/sports-0.0.1/</t>
-  </si>
-  <si>
     <t>AppLaunch</t>
   </si>
   <si>
@@ -117,6 +114,9 @@
   </si>
   <si>
     <t>HKJC</t>
+  </si>
+  <si>
+    <t>http://localhost:8080/sports-0.0.1/</t>
   </si>
 </sst>
 </file>
@@ -188,9 +188,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -480,17 +479,17 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F19" sqref="F19"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="38.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.26953125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.7265625" style="3"/>
+    <col min="1" max="1" width="38.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -499,59 +498,59 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+      <c r="B5" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="B6" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+      <c r="B7" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -591,7 +590,7 @@
       <c r="H6" t="s">
         <v>13</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K6" t="s">
@@ -609,7 +608,7 @@
       <c r="E7" t="s">
         <v>4</v>
       </c>
-      <c r="J7" s="4"/>
+      <c r="J7" s="3"/>
       <c r="K7" t="s">
         <v>13</v>
       </c>
@@ -624,7 +623,7 @@
       <c r="H8" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="4"/>
+      <c r="J8" s="3"/>
       <c r="K8" t="s">
         <v>13</v>
       </c>
@@ -639,7 +638,7 @@
       <c r="H9" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="4" t="s">
+      <c r="J9" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K9" t="s">
@@ -653,7 +652,7 @@
       <c r="H10" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="4"/>
+      <c r="J10" s="3"/>
       <c r="K10" t="s">
         <v>16</v>
       </c>
@@ -662,7 +661,7 @@
       <c r="E11" t="s">
         <v>8</v>
       </c>
-      <c r="J11" s="4"/>
+      <c r="J11" s="3"/>
       <c r="K11" t="s">
         <v>13</v>
       </c>
@@ -677,7 +676,7 @@
       <c r="H12" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="4" t="s">
+      <c r="J12" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K12" t="s">
@@ -694,7 +693,7 @@
       <c r="H13" t="s">
         <v>13</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K13" t="s">
@@ -714,7 +713,7 @@
       <c r="H14" t="s">
         <v>15</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="J14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K14" t="s">
@@ -731,7 +730,7 @@
       <c r="H15" t="s">
         <v>13</v>
       </c>
-      <c r="J15" s="4" t="s">
+      <c r="J15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="K15" t="s">
@@ -752,21 +751,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006AF481DA395363459B41C16DFF4BA6A7" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="4c6d370485cc6195fa162f69fdd108fb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="55c14da5-d201-4054-b292-8f9dff391362" xmlns:ns3="618a4239-2d27-49a6-ab18-57bf3535ca02" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f3428ca92c8baf5dd146268d61ffd8ff" ns2:_="" ns3:_="">
     <xsd:import namespace="55c14da5-d201-4054-b292-8f9dff391362"/>
@@ -983,24 +967,22 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14F10E31-AE8D-4B8B-A0D9-DA7D20CFC58C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{302AA12E-C157-4EE2-9162-B8284453AB63}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDA82890-82D1-40D0-8545-84658EE1F412}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1017,4 +999,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{302AA12E-C157-4EE2-9162-B8284453AB63}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{14F10E31-AE8D-4B8B-A0D9-DA7D20CFC58C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>